--- a/New files/Cedars-Sinai Medical Center/10189919 Cedars-Sinai Medical Center.xlsx
+++ b/New files/Cedars-Sinai Medical Center/10189919 Cedars-Sinai Medical Center.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB7E04C-82B8-410A-8F32-F977020C8B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5493E804-B936-43D0-89B0-2ED3F3026A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{9BEBA5E6-BE18-459E-A105-68B8C02CFA5C}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{A6A7C029-CB0E-4D36-80B9-B4D97995071B}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Bill to</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Net 30</t>
   </si>
   <si>
-    <t>0002076785</t>
-  </si>
-  <si>
     <t>Invoice Summary - Cedars-Sinai Medical Center</t>
   </si>
   <si>
@@ -112,7 +109,7 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>CV Invasive Services</t>
+    <t>CV Invasive Services,207122</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -460,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,9 +466,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -596,20 +590,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD220ACB-25C3-3436-1BC6-C070E3614C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600AA75D-ECDE-1EE1-DA04-CE8593F99FE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -960,176 +954,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B4550A-5EC7-4C01-B4FA-0961E26E33DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABB064-659F-471A-9B3F-AB1587EE4D41}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="G2" s="8" t="s">
+      <c r="A2" s="43"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>10189919</v>
       </c>
-      <c r="K2" s="41"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="G3" s="8" t="s">
+      <c r="A3" s="43"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>45435</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="G4" s="8" t="s">
+      <c r="A4" s="43"/>
+      <c r="G4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="G5" s="8" t="s">
+      <c r="A5" s="43"/>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="G6" s="8" t="s">
+      <c r="A6" s="43"/>
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="3">
         <v>45465</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="G7" s="8" t="s">
+      <c r="A7" s="43"/>
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="41"/>
+      <c r="J7" s="2">
+        <v>2076785</v>
+      </c>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="G9" s="9" t="s">
+      <c r="A9" s="43"/>
+      <c r="G9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="41"/>
+      <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="J10" s="5" t="s">
+      <c r="A10" s="43"/>
+      <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="41"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="10"/>
-      <c r="J11" s="5" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="9"/>
+      <c r="J11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="41"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="10" t="s">
+      <c r="J14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="41"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
+      <c r="A16" s="43"/>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="41"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1139,220 +1135,220 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="K18" s="41"/>
+      <c r="A18" s="43"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="C19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="16" t="s">
+      <c r="A19" s="43"/>
+      <c r="C19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="16">
+        <v>114.5</v>
+      </c>
+      <c r="F20" s="18">
+        <v>9125</v>
+      </c>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17">
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="C23" s="14">
+        <v>207122</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16">
         <v>114.5</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F23" s="18">
         <v>9125</v>
       </c>
-      <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="C22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="I23" s="34">
+        <v>9125</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="C24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
+        <v>114.5</v>
+      </c>
+      <c r="F24" s="22">
+        <v>9125</v>
+      </c>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="D26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="C23" s="15">
-        <v>207122</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="D27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="16">
+        <v>71</v>
+      </c>
+      <c r="F27" s="18">
+        <v>8520</v>
+      </c>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="D28" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>180</v>
+      </c>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="D29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="23">
+        <v>72</v>
+      </c>
+      <c r="F29" s="24">
+        <v>8700</v>
+      </c>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="D30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="D31" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="16">
+        <v>42.5</v>
+      </c>
+      <c r="F31" s="18">
+        <v>425</v>
+      </c>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="D32" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="29">
+        <v>42.5</v>
+      </c>
+      <c r="F32" s="30">
+        <v>425</v>
+      </c>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="D33" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E33" s="21">
         <v>114.5</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F33" s="22">
         <v>9125</v>
       </c>
-      <c r="I23" s="35">
-        <v>9125</v>
-      </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="41"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="C24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22">
-        <v>114.5</v>
-      </c>
-      <c r="F24" s="23">
-        <v>9125</v>
-      </c>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="D26" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="41"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="D27" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="17">
-        <v>71</v>
-      </c>
-      <c r="F27" s="19">
-        <v>8520</v>
-      </c>
-      <c r="K27" s="41"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="D28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="19">
-        <v>180</v>
-      </c>
-      <c r="K28" s="41"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="D29" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="24">
-        <v>72</v>
-      </c>
-      <c r="F29" s="25">
-        <v>8700</v>
-      </c>
-      <c r="K29" s="41"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="D30" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="41"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="D31" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="17">
-        <v>42.5</v>
-      </c>
-      <c r="F31" s="19">
-        <v>425</v>
-      </c>
-      <c r="K31" s="41"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="D32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="30">
-        <v>42.5</v>
-      </c>
-      <c r="F32" s="31">
-        <v>425</v>
-      </c>
-      <c r="K32" s="41"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="D33" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="22">
-        <v>114.5</v>
-      </c>
-      <c r="F33" s="23">
-        <v>9125</v>
-      </c>
-      <c r="K33" s="41"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="K34" s="41"/>
+      <c r="A34" s="43"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1369,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7646B192-D63A-4714-B478-34161131AABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548B9FC-BA57-432B-8432-78EBF97C51E3}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1377,546 +1373,546 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="36" t="s">
+      <c r="C2" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+      <c r="D2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="38">
+        <v>45418</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="39">
+        <v>9</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36">
+        <v>120</v>
+      </c>
+      <c r="L2" s="36">
+        <v>1080</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="37">
         <v>207122</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="38">
+        <v>45419</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="39">
+        <v>8.5</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
+        <v>120</v>
+      </c>
+      <c r="L3" s="36">
+        <v>1020</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="38">
+        <v>45420</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="39">
-        <v>45418</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="39">
+        <v>9</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>120</v>
+      </c>
+      <c r="L4" s="36">
+        <v>1080</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="38">
+        <v>45421</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="39">
+        <v>9</v>
+      </c>
+      <c r="J5" s="39">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36">
+        <v>120</v>
+      </c>
+      <c r="L5" s="36">
+        <v>1080</v>
+      </c>
+      <c r="M5" s="39"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="38">
+        <v>45421</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="39">
+        <v>14.5</v>
+      </c>
+      <c r="J6" s="39">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
+        <v>10</v>
+      </c>
+      <c r="L6" s="36">
+        <v>145</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="38">
+        <v>45426</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="39">
+        <v>9</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>120</v>
+      </c>
+      <c r="L7" s="36">
+        <v>1080</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="38">
+        <v>45426</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="39">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>180</v>
+      </c>
+      <c r="L8" s="36">
+        <v>180</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="38">
+        <v>45426</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="39">
+        <v>13.5</v>
+      </c>
+      <c r="J9" s="39">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>10</v>
+      </c>
+      <c r="L9" s="36">
+        <v>135</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="38">
+        <v>45427</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="40">
+      <c r="H10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="39">
+        <v>8.5</v>
+      </c>
+      <c r="J10" s="39">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36">
+        <v>120</v>
+      </c>
+      <c r="L10" s="36">
+        <v>1020</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="36"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="38">
+        <v>45428</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="39">
         <v>9</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J11" s="39">
         <v>0</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K11" s="36">
         <v>120</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L11" s="36">
         <v>1080</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="M11" s="39"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="37">
         <v>207122</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="38">
+        <v>45428</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="39">
+        <v>14.5</v>
+      </c>
+      <c r="J12" s="39">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
+        <v>10</v>
+      </c>
+      <c r="L12" s="36">
+        <v>145</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="37">
+        <v>207122</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="38">
+        <v>45429</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="39">
-        <v>45419</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="40">
-        <v>8.5</v>
-      </c>
-      <c r="J3" s="40">
+      <c r="H13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="39">
+        <v>9</v>
+      </c>
+      <c r="J13" s="39">
         <v>0</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K13" s="36">
         <v>120</v>
       </c>
-      <c r="L3" s="37">
-        <v>1020</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="37"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="39">
-        <v>45420</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="40">
-        <v>9</v>
-      </c>
-      <c r="J4" s="40">
-        <v>0</v>
-      </c>
-      <c r="K4" s="37">
-        <v>120</v>
-      </c>
-      <c r="L4" s="37">
+      <c r="L13" s="36">
         <v>1080</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="39">
-        <v>45421</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="40">
-        <v>9</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="37">
-        <v>120</v>
-      </c>
-      <c r="L5" s="37">
-        <v>1080</v>
-      </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="39">
-        <v>45421</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="40">
-        <v>14.5</v>
-      </c>
-      <c r="J6" s="40">
-        <v>0</v>
-      </c>
-      <c r="K6" s="37">
-        <v>10</v>
-      </c>
-      <c r="L6" s="37">
-        <v>145</v>
-      </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="37"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="39">
-        <v>45426</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="40">
-        <v>9</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="37">
-        <v>120</v>
-      </c>
-      <c r="L7" s="37">
-        <v>1080</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="39">
-        <v>45426</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1</v>
-      </c>
-      <c r="J8" s="40">
-        <v>0</v>
-      </c>
-      <c r="K8" s="37">
-        <v>180</v>
-      </c>
-      <c r="L8" s="37">
-        <v>180</v>
-      </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="37"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="39">
-        <v>45426</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="40">
-        <v>13.5</v>
-      </c>
-      <c r="J9" s="40">
-        <v>0</v>
-      </c>
-      <c r="K9" s="37">
-        <v>10</v>
-      </c>
-      <c r="L9" s="37">
-        <v>135</v>
-      </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="39">
-        <v>45427</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="40">
-        <v>8.5</v>
-      </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="37">
-        <v>120</v>
-      </c>
-      <c r="L10" s="37">
-        <v>1020</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="39">
-        <v>45428</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="40">
-        <v>9</v>
-      </c>
-      <c r="J11" s="40">
-        <v>0</v>
-      </c>
-      <c r="K11" s="37">
-        <v>120</v>
-      </c>
-      <c r="L11" s="37">
-        <v>1080</v>
-      </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="39">
-        <v>45428</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="40">
-        <v>14.5</v>
-      </c>
-      <c r="J12" s="40">
-        <v>0</v>
-      </c>
-      <c r="K12" s="37">
-        <v>10</v>
-      </c>
-      <c r="L12" s="37">
-        <v>145</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
-        <v>207122</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="39">
-        <v>45429</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="40">
-        <v>9</v>
-      </c>
-      <c r="J13" s="40">
-        <v>0</v>
-      </c>
-      <c r="K13" s="37">
-        <v>120</v>
-      </c>
-      <c r="L13" s="37">
-        <v>1080</v>
-      </c>
-      <c r="M13" s="40">
+      <c r="M13" s="39">
         <v>114.5</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="36">
         <v>9125</v>
       </c>
     </row>

--- a/New files/Cedars-Sinai Medical Center/10189919 Cedars-Sinai Medical Center.xlsx
+++ b/New files/Cedars-Sinai Medical Center/10189919 Cedars-Sinai Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5493E804-B936-43D0-89B0-2ED3F3026A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A51B934-B71C-4C9D-9488-FC21A0EFEC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{A6A7C029-CB0E-4D36-80B9-B4D97995071B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F1A332DE-344E-44E7-8DD9-8D3BDB10D7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -590,20 +590,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600AA75D-ECDE-1EE1-DA04-CE8593F99FE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14157A63-0BD2-4C49-7F5C-860F678DC619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABB064-659F-471A-9B3F-AB1587EE4D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE6277C-F3F1-4985-BC61-82E0544FF4F0}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -964,12 +964,12 @@
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548B9FC-BA57-432B-8432-78EBF97C51E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD290C54-B592-4E60-8849-933E92746DE1}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1379,13 +1379,13 @@
     <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">

--- a/New files/Cedars-Sinai Medical Center/10189919 Cedars-Sinai Medical Center.xlsx
+++ b/New files/Cedars-Sinai Medical Center/10189919 Cedars-Sinai Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A51B934-B71C-4C9D-9488-FC21A0EFEC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB73B53B-B8E8-4449-A1D9-7E209ACFCF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F1A332DE-344E-44E7-8DD9-8D3BDB10D7C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96A2AAD2-6834-43B1-846E-579788D9E78D}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -590,20 +590,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14157A63-0BD2-4C49-7F5C-860F678DC619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED04BF2-D13E-D159-A2EE-63844E7FB151}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE6277C-F3F1-4985-BC61-82E0544FF4F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAB4D8B-0538-4959-B9DA-A10E19CA892A}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -962,14 +962,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD290C54-B592-4E60-8849-933E92746DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51C6D33-A2DA-47FF-97B4-C374E6BC6D90}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1379,13 +1379,13 @@
     <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
